--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Gm13306</t>
+  </si>
+  <si>
+    <t>Ccr10</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Gm13306</t>
-  </si>
-  <si>
-    <t>Ccr10</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04481599999999999</v>
+        <v>0.51311</v>
       </c>
       <c r="H2">
-        <v>0.134448</v>
+        <v>1.53933</v>
       </c>
       <c r="I2">
-        <v>0.04093859636836211</v>
+        <v>0.9158753391403684</v>
       </c>
       <c r="J2">
-        <v>0.04093859636836211</v>
+        <v>0.9158753391403684</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2056166666666667</v>
+        <v>0.05145833333333334</v>
       </c>
       <c r="N2">
-        <v>0.61685</v>
+        <v>0.154375</v>
       </c>
       <c r="O2">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="P2">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="Q2">
-        <v>0.009214916533333332</v>
+        <v>0.02640378541666667</v>
       </c>
       <c r="R2">
-        <v>0.08293424879999999</v>
+        <v>0.23763406875</v>
       </c>
       <c r="S2">
-        <v>0.01586854048598151</v>
+        <v>0.2206767495700729</v>
       </c>
       <c r="T2">
-        <v>0.01586854048598151</v>
+        <v>0.2206767495700729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04481599999999999</v>
+        <v>0.51311</v>
       </c>
       <c r="H3">
-        <v>0.134448</v>
+        <v>1.53933</v>
       </c>
       <c r="I3">
-        <v>0.04093859636836211</v>
+        <v>0.9158753391403684</v>
       </c>
       <c r="J3">
-        <v>0.04093859636836211</v>
+        <v>0.9158753391403684</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +623,22 @@
         <v>0.418253</v>
       </c>
       <c r="O3">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="P3">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="Q3">
-        <v>0.006248142149333332</v>
+        <v>0.07153659894333332</v>
       </c>
       <c r="R3">
-        <v>0.05623327934399999</v>
+        <v>0.6438293904899999</v>
       </c>
       <c r="S3">
-        <v>0.01075960876044942</v>
+        <v>0.5978863970068449</v>
       </c>
       <c r="T3">
-        <v>0.01075960876044942</v>
+        <v>0.5978863970068449</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04481599999999999</v>
+        <v>0.51311</v>
       </c>
       <c r="H4">
-        <v>0.134448</v>
+        <v>1.53933</v>
       </c>
       <c r="I4">
-        <v>0.04093859636836211</v>
+        <v>0.9158753391403684</v>
       </c>
       <c r="J4">
-        <v>0.04093859636836211</v>
+        <v>0.9158753391403684</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1854276666666667</v>
+        <v>0.02269166666666667</v>
       </c>
       <c r="N4">
-        <v>0.556283</v>
+        <v>0.068075</v>
       </c>
       <c r="O4">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="P4">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="Q4">
-        <v>0.008310126309333333</v>
+        <v>0.01164332108333333</v>
       </c>
       <c r="R4">
-        <v>0.07479113678399998</v>
+        <v>0.10478988975</v>
       </c>
       <c r="S4">
-        <v>0.01431044712193118</v>
+        <v>0.09731219256345075</v>
       </c>
       <c r="T4">
-        <v>0.01431044712193118</v>
+        <v>0.09731219256345074</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +708,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.51311</v>
+        <v>0.04713</v>
       </c>
       <c r="H5">
-        <v>1.53933</v>
+        <v>0.14139</v>
       </c>
       <c r="I5">
-        <v>0.4687166008249348</v>
+        <v>0.08412466085963159</v>
       </c>
       <c r="J5">
-        <v>0.4687166008249349</v>
+        <v>0.08412466085963159</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2056166666666667</v>
+        <v>0.05145833333333334</v>
       </c>
       <c r="N5">
-        <v>0.61685</v>
+        <v>0.154375</v>
       </c>
       <c r="O5">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="P5">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="Q5">
-        <v>0.1055039678333333</v>
+        <v>0.00242523125</v>
       </c>
       <c r="R5">
-        <v>0.9495357105</v>
+        <v>0.02182708125</v>
       </c>
       <c r="S5">
-        <v>0.1816830330409222</v>
+        <v>0.02026952350809287</v>
       </c>
       <c r="T5">
-        <v>0.1816830330409222</v>
+        <v>0.02026952350809287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.51311</v>
+        <v>0.04713</v>
       </c>
       <c r="H6">
-        <v>1.53933</v>
+        <v>0.14139</v>
       </c>
       <c r="I6">
-        <v>0.4687166008249348</v>
+        <v>0.08412466085963159</v>
       </c>
       <c r="J6">
-        <v>0.4687166008249349</v>
+        <v>0.08412466085963159</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,22 +809,22 @@
         <v>0.418253</v>
       </c>
       <c r="O6">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="P6">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="Q6">
-        <v>0.07153659894333332</v>
+        <v>0.00657075463</v>
       </c>
       <c r="R6">
-        <v>0.6438293904899999</v>
+        <v>0.05913679166999999</v>
       </c>
       <c r="S6">
-        <v>0.1231895495152222</v>
+        <v>0.05491685192440724</v>
       </c>
       <c r="T6">
-        <v>0.1231895495152222</v>
+        <v>0.05491685192440724</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.51311</v>
+        <v>0.04713</v>
       </c>
       <c r="H7">
-        <v>1.53933</v>
+        <v>0.14139</v>
       </c>
       <c r="I7">
-        <v>0.4687166008249348</v>
+        <v>0.08412466085963159</v>
       </c>
       <c r="J7">
-        <v>0.4687166008249349</v>
+        <v>0.08412466085963159</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,586 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1854276666666667</v>
+        <v>0.02269166666666667</v>
       </c>
       <c r="N7">
-        <v>0.556283</v>
+        <v>0.068075</v>
       </c>
       <c r="O7">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="P7">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="Q7">
-        <v>0.09514479004333332</v>
+        <v>0.00106945825</v>
       </c>
       <c r="R7">
-        <v>0.8563031103899998</v>
+        <v>0.009625124249999999</v>
       </c>
       <c r="S7">
-        <v>0.1638440182687904</v>
+        <v>0.00893828542713148</v>
       </c>
       <c r="T7">
-        <v>0.1638440182687904</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1674846666666666</v>
-      </c>
-      <c r="H8">
-        <v>0.502454</v>
-      </c>
-      <c r="I8">
-        <v>0.1529941799035241</v>
-      </c>
-      <c r="J8">
-        <v>0.1529941799035242</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.2056166666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.61685</v>
-      </c>
-      <c r="O8">
-        <v>0.3876180888860402</v>
-      </c>
-      <c r="P8">
-        <v>0.3876180888860402</v>
-      </c>
-      <c r="Q8">
-        <v>0.03443763887777777</v>
-      </c>
-      <c r="R8">
-        <v>0.3099387499</v>
-      </c>
-      <c r="S8">
-        <v>0.05930331162489104</v>
-      </c>
-      <c r="T8">
-        <v>0.05930331162489105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1674846666666666</v>
-      </c>
-      <c r="H9">
-        <v>0.502454</v>
-      </c>
-      <c r="I9">
-        <v>0.1529941799035241</v>
-      </c>
-      <c r="J9">
-        <v>0.1529941799035242</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.1394176666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.418253</v>
-      </c>
-      <c r="O9">
-        <v>0.2628230988584793</v>
-      </c>
-      <c r="P9">
-        <v>0.2628230988584793</v>
-      </c>
-      <c r="Q9">
-        <v>0.02335032142911111</v>
-      </c>
-      <c r="R9">
-        <v>0.210152892862</v>
-      </c>
-      <c r="S9">
-        <v>0.04021040446955589</v>
-      </c>
-      <c r="T9">
-        <v>0.0402104044695559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1674846666666666</v>
-      </c>
-      <c r="H10">
-        <v>0.502454</v>
-      </c>
-      <c r="I10">
-        <v>0.1529941799035241</v>
-      </c>
-      <c r="J10">
-        <v>0.1529941799035242</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.1854276666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.556283</v>
-      </c>
-      <c r="O10">
-        <v>0.3495588122554804</v>
-      </c>
-      <c r="P10">
-        <v>0.3495588122554804</v>
-      </c>
-      <c r="Q10">
-        <v>0.03105629094244444</v>
-      </c>
-      <c r="R10">
-        <v>0.279506618482</v>
-      </c>
-      <c r="S10">
-        <v>0.05348046380907719</v>
-      </c>
-      <c r="T10">
-        <v>0.05348046380907719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.3354936666666666</v>
-      </c>
-      <c r="H11">
-        <v>1.006481</v>
-      </c>
-      <c r="I11">
-        <v>0.3064673287176117</v>
-      </c>
-      <c r="J11">
-        <v>0.3064673287176118</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.2056166666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.61685</v>
-      </c>
-      <c r="O11">
-        <v>0.3876180888860402</v>
-      </c>
-      <c r="P11">
-        <v>0.3876180888860402</v>
-      </c>
-      <c r="Q11">
-        <v>0.06898308942777777</v>
-      </c>
-      <c r="R11">
-        <v>0.62084780485</v>
-      </c>
-      <c r="S11">
-        <v>0.1187922802635305</v>
-      </c>
-      <c r="T11">
-        <v>0.1187922802635305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.3354936666666666</v>
-      </c>
-      <c r="H12">
-        <v>1.006481</v>
-      </c>
-      <c r="I12">
-        <v>0.3064673287176117</v>
-      </c>
-      <c r="J12">
-        <v>0.3064673287176118</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.1394176666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.418253</v>
-      </c>
-      <c r="O12">
-        <v>0.2628230988584793</v>
-      </c>
-      <c r="P12">
-        <v>0.2628230988584793</v>
-      </c>
-      <c r="Q12">
-        <v>0.0467737441881111</v>
-      </c>
-      <c r="R12">
-        <v>0.420963697693</v>
-      </c>
-      <c r="S12">
-        <v>0.08054669303244294</v>
-      </c>
-      <c r="T12">
-        <v>0.08054669303244297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.3354936666666666</v>
-      </c>
-      <c r="H13">
-        <v>1.006481</v>
-      </c>
-      <c r="I13">
-        <v>0.3064673287176117</v>
-      </c>
-      <c r="J13">
-        <v>0.3064673287176118</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.1854276666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.556283</v>
-      </c>
-      <c r="O13">
-        <v>0.3495588122554804</v>
-      </c>
-      <c r="P13">
-        <v>0.3495588122554804</v>
-      </c>
-      <c r="Q13">
-        <v>0.06220980779144444</v>
-      </c>
-      <c r="R13">
-        <v>0.5598882701229999</v>
-      </c>
-      <c r="S13">
-        <v>0.1071283554216382</v>
-      </c>
-      <c r="T13">
-        <v>0.1071283554216383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.03380833333333334</v>
-      </c>
-      <c r="H14">
-        <v>0.101425</v>
-      </c>
-      <c r="I14">
-        <v>0.03088329418556711</v>
-      </c>
-      <c r="J14">
-        <v>0.03088329418556712</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.2056166666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.61685</v>
-      </c>
-      <c r="O14">
-        <v>0.3876180888860402</v>
-      </c>
-      <c r="P14">
-        <v>0.3876180888860402</v>
-      </c>
-      <c r="Q14">
-        <v>0.006951556805555557</v>
-      </c>
-      <c r="R14">
-        <v>0.06256401125</v>
-      </c>
-      <c r="S14">
-        <v>0.01197092347071488</v>
-      </c>
-      <c r="T14">
-        <v>0.01197092347071488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.03380833333333334</v>
-      </c>
-      <c r="H15">
-        <v>0.101425</v>
-      </c>
-      <c r="I15">
-        <v>0.03088329418556711</v>
-      </c>
-      <c r="J15">
-        <v>0.03088329418556712</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.1394176666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.418253</v>
-      </c>
-      <c r="O15">
-        <v>0.2628230988584793</v>
-      </c>
-      <c r="P15">
-        <v>0.2628230988584793</v>
-      </c>
-      <c r="Q15">
-        <v>0.004713478947222223</v>
-      </c>
-      <c r="R15">
-        <v>0.042421310525</v>
-      </c>
-      <c r="S15">
-        <v>0.008116843080808804</v>
-      </c>
-      <c r="T15">
-        <v>0.008116843080808806</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.03380833333333334</v>
-      </c>
-      <c r="H16">
-        <v>0.101425</v>
-      </c>
-      <c r="I16">
-        <v>0.03088329418556711</v>
-      </c>
-      <c r="J16">
-        <v>0.03088329418556712</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.1854276666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.556283</v>
-      </c>
-      <c r="O16">
-        <v>0.3495588122554804</v>
-      </c>
-      <c r="P16">
-        <v>0.3495588122554804</v>
-      </c>
-      <c r="Q16">
-        <v>0.006269000363888889</v>
-      </c>
-      <c r="R16">
-        <v>0.056421003275</v>
-      </c>
-      <c r="S16">
-        <v>0.01079552763404342</v>
-      </c>
-      <c r="T16">
-        <v>0.01079552763404342</v>
+        <v>0.008938285427131478</v>
       </c>
     </row>
   </sheetData>
